--- a/2012.xlsx
+++ b/2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD3C79-E830-4D4C-82C3-04F4CB57BA23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6520E344-FFA3-4461-9963-194B2D2E07F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="2820" yWindow="1215" windowWidth="21450" windowHeight="14385" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Depth" sheetId="2" r:id="rId1"/>
@@ -3527,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
@@ -9721,8 +9721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3DE190-3B33-E643-BE26-E876BF115F0E}">
   <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:XFD105"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9881,15 +9881,15 @@
         <v>#N/A</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f t="shared" ref="K3:K8" si="8">VLOOKUP(B3,$O$13:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="1" t="e">
-        <f t="shared" ref="L3:L8" si="9">VLOOKUP(B3,$O$13:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="1" t="e">
-        <f t="shared" ref="M3:M8" si="10">VLOOKUP(B3,$O$13:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="19"/>
@@ -9986,15 +9986,15 @@
         <v>#N/A</v>
       </c>
       <c r="K4" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K4:K8" si="8">VLOOKUP(B4,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L4:L8" si="9">VLOOKUP(B4,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M4:M8" si="10">VLOOKUP(B4,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="19"/>
@@ -11702,47 +11702,47 @@
         <v>375</v>
       </c>
       <c r="C53" t="e">
-        <f t="shared" ref="C53:C97" si="15">VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$56,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f t="shared" ref="D53:D97" si="16">VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$56,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f t="shared" ref="E53:E97" si="17">VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f t="shared" ref="F53:F97" si="18">VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f t="shared" ref="G53:G97" si="19">VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" ref="H53:H97" si="20">VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f t="shared" ref="I53:I97" si="21">VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f t="shared" ref="J53:J97" si="22">VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f t="shared" ref="K53:K97" si="23">VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f t="shared" ref="L53:L97" si="24">VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f t="shared" ref="M53:M97" si="25">VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11754,47 +11754,47 @@
         <v>376</v>
       </c>
       <c r="C54" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C54:C97" si="15">VLOOKUP(B54,$AP$4:$BE$56,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D54:D97" si="16">VLOOKUP(B54,$AP$4:$BE$56,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="E54:E97" si="17">VLOOKUP(B54,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F54:F97" si="18">VLOOKUP(B54,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="G54:G97" si="19">VLOOKUP(B54,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H54:H97" si="20">VLOOKUP(B54,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I54:I97" si="21">VLOOKUP(B54,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="J54:J97" si="22">VLOOKUP(B54,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K54:K97" si="23">VLOOKUP(B54,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="L54:L97" si="24">VLOOKUP(B54,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="M54:M97" si="25">VLOOKUP(B54,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
